--- a/biology/Botanique/Capsicum_annuum/Capsicum_annuum.xlsx
+++ b/biology/Botanique/Capsicum_annuum/Capsicum_annuum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capsicum annuum est le nom scientifique de l'espèce à laquelle appartiennent différentes variétés de poivrons et piments. Elle appartient à la famille des Solanaceae. Elle est originaire de la région allant de la Colombie au sud des États-Unis, mais est actuellement l'espèce du genre Capsicum la plus cultivée dans le monde entier.
 </t>
@@ -511,11 +523,13 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des collections de cultivars de piments et poivrons sont entretenues dans différents pays pour préserver les ressources génétiques de l'espèce et des espèces voisines. 
-En France, le réseau de ressources génétiques de Solanacées à fruits basé à Avignon a la responsabilité de la conservation de nombreuses variétés de piments, tomates et aubergines[1]. Il entretient en particulier la collection nationale de ressources génétiques de piment-poivron. 
-Dans les catalogues européens des espèces et variétés, figurent plus de 2 300 variétés inscrites de piments et poivrons (Capsicum annuum)[2], dont plus de 155 dans le catalogue français[3]. Ces catalogues comprennent une majorité de variétés modernes, souvent des hybrides F1, mais aussi des variétés traditionnelles. En outre, pour répondre aux critiques formulées à l'égard des catalogues officiels par des jardiniers amateurs, des variétés peuvent être ajoutées dans une « liste annexe des variétés sans valeur intrinsèque, dénommée précédemment en France : liste annexe des anciennes variétés pour amateurs ». Actuellement une seule variété est inscrite à ce titre : « Golden sweet ».
+En France, le réseau de ressources génétiques de Solanacées à fruits basé à Avignon a la responsabilité de la conservation de nombreuses variétés de piments, tomates et aubergines. Il entretient en particulier la collection nationale de ressources génétiques de piment-poivron. 
+Dans les catalogues européens des espèces et variétés, figurent plus de 2 300 variétés inscrites de piments et poivrons (Capsicum annuum), dont plus de 155 dans le catalogue français. Ces catalogues comprennent une majorité de variétés modernes, souvent des hybrides F1, mais aussi des variétés traditionnelles. En outre, pour répondre aux critiques formulées à l'égard des catalogues officiels par des jardiniers amateurs, des variétés peuvent être ajoutées dans une « liste annexe des variétés sans valeur intrinsèque, dénommée précédemment en France : liste annexe des anciennes variétés pour amateurs ». Actuellement une seule variété est inscrite à ce titre : « Golden sweet ».
 Parmi les piments les plus connus de l'espèce Capsicum annuum, on peut citer :
 Piment d'Anglet ou Piment doux des Landes ou Piment doux de Gascogne ou Piment doux du Pays basque ;
 Piment banane ou Poivron banane (nommés ainsi d'après leur couleur, forme et saveur) ou Poivron Wax jaune :  jaune-vert ou jaune, mais qui peut aussi être rouge une fois mûr ; doux et sucré ;
@@ -565,9 +579,11 @@
           <t>Maladies et viroses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses maladies peuvent affecter la production des piments. La création de variétés plus résistantes permettent de lutter contre certaines maladies et viroses telles que TMV, PPMMoV, PVY, TSWV,CMV, Phytophtora, Leveillula, TEV, Xanthomonas[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses maladies peuvent affecter la production des piments. La création de variétés plus résistantes permettent de lutter contre certaines maladies et viroses telles que TMV, PPMMoV, PVY, TSWV,CMV, Phytophtora, Leveillula, TEV, Xanthomonas.
 </t>
         </is>
       </c>
